--- a/src/main/resources/static/excel/payedGatherDetail.xlsx
+++ b/src/main/resources/static/excel/payedGatherDetail.xlsx
@@ -64,19 +64,19 @@
     <t xml:space="preserve"> 未到账 </t>
   </si>
   <si>
-    <t>{{$fe:list t t.taskId</t>
+    <t>{{$fe:list t.taskId</t>
   </si>
   <si>
     <t>t.contractNumber</t>
   </si>
   <si>
-    <t>t t.invoiceDate</t>
+    <t>t.invoiceDate</t>
   </si>
   <si>
     <t>t.createLimitPart</t>
   </si>
   <si>
-    <t>t.createLimit</t>
+    <t>t.creditLimit</t>
   </si>
   <si>
     <t>t.invoiceNumber</t>
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,44 +132,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +153,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -191,6 +175,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -201,6 +193,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -215,23 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -239,37 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +284,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,169 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,71 +481,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +504,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -575,153 +536,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,10 +1054,13 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="36.3035714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">

--- a/src/main/resources/static/excel/payedGatherDetail.xlsx
+++ b/src/main/resources/static/excel/payedGatherDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11920"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>任务单号</t>
   </si>
@@ -55,6 +55,15 @@
     <t>项目负责人</t>
   </si>
   <si>
+    <t>签收人</t>
+  </si>
+  <si>
+    <t>报告号</t>
+  </si>
+  <si>
+    <t>报告日期</t>
+  </si>
+  <si>
     <t>回款日期</t>
   </si>
   <si>
@@ -64,6 +73,12 @@
     <t xml:space="preserve"> 未到账 </t>
   </si>
   <si>
+    <t>坏账准备</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>{{$fe:list t.taskId</t>
   </si>
   <si>
@@ -103,13 +118,25 @@
     <t>t.contractUser</t>
   </si>
   <si>
+    <t>t.invoiceSignatory</t>
+  </si>
+  <si>
+    <t>t.reportNumber</t>
+  </si>
+  <si>
+    <t>t.reportDate</t>
+  </si>
+  <si>
     <t>t.receivedDate</t>
   </si>
   <si>
     <t>t.receivedAmount</t>
   </si>
   <si>
-    <t>t.noReceivedAmount}}</t>
+    <t>t.noReceivedAmount</t>
+  </si>
+  <si>
+    <t>t.descprition}}</t>
   </si>
 </sst>
 </file>
@@ -117,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,7 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,20 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -175,9 +188,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,78 +279,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +311,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,31 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,37 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,91 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +502,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,15 +534,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +564,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -560,168 +602,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1062,7 +1089,7 @@
     <col min="1" max="1" width="36.3035714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,55 +1138,82 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="3:3">

--- a/src/main/resources/static/excel/payedGatherDetail.xlsx
+++ b/src/main/resources/static/excel/payedGatherDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11900"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
     <t>t.contractNumber</t>
   </si>
   <si>
-    <t>t.invoiceDate</t>
+    <t>fd:(t.invoiceDate;yyyy.MM.dd)</t>
   </si>
   <si>
     <t>t.createLimitPart</t>
@@ -124,10 +124,10 @@
     <t>t.reportNumber</t>
   </si>
   <si>
-    <t>t.reportDate</t>
-  </si>
-  <si>
-    <t>t.receivedDate</t>
+    <t>fd:(t.reportDate;yyyy.MM.dd)</t>
+  </si>
+  <si>
+    <t>fd:(t.receivedDate;yyyy.MM.dd)</t>
   </si>
   <si>
     <t>t.receivedAmount</t>
@@ -144,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -180,6 +180,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -190,7 +281,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,105 +296,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,6 +317,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,7 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,19 +371,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,43 +443,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,85 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +524,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -534,6 +549,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,21 +594,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -587,162 +602,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>

--- a/src/main/resources/static/excel/payedGatherDetail.xlsx
+++ b/src/main/resources/static/excel/payedGatherDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11880"/>
+    <workbookView windowWidth="28000" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -181,15 +181,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,20 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -227,15 +243,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,20 +266,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -264,39 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,191 +317,206 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,21 +534,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +568,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -585,17 +611,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -607,153 +622,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1081,7 +1099,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1093,64 +1111,64 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1161,7 +1179,7 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
@@ -1217,10 +1235,10 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/src/main/resources/static/excel/payedGatherDetail.xlsx
+++ b/src/main/resources/static/excel/payedGatherDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11900"/>
+    <workbookView windowWidth="28800" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,13 +106,13 @@
     <t>t.invoiceProject</t>
   </si>
   <si>
-    <t>t.contractAmount</t>
-  </si>
-  <si>
-    <t>t.invoiceAmount</t>
-  </si>
-  <si>
-    <t>t.noTaxAmount</t>
+    <t>fn:(t.contractAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.invoiceAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.noTaxAmount;###.##)</t>
   </si>
   <si>
     <t>t.contractUser</t>
@@ -130,10 +130,10 @@
     <t>fd:(t.receivedDate;yyyy.MM.dd)</t>
   </si>
   <si>
-    <t>t.receivedAmount</t>
-  </si>
-  <si>
-    <t>t.noReceivedAmount</t>
+    <t>fn:(t.receivedAmount;###.##)</t>
+  </si>
+  <si>
+    <t>fn:(t.noReceivedAmount;###.##)</t>
   </si>
   <si>
     <t>t.descprition}}</t>
@@ -146,8 +146,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,14 +159,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,122 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,25 +317,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +449,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,43 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,90 +492,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +520,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -538,36 +562,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -575,6 +569,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,25 +604,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,148 +622,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>

--- a/src/main/resources/static/excel/payedGatherDetail.xlsx
+++ b/src/main/resources/static/excel/payedGatherDetail.xlsx
@@ -144,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -165,39 +165,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,14 +212,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,32 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,6 +240,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -274,14 +257,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,13 +301,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,181 +317,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,17 +520,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +555,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +592,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -572,198 +617,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>

--- a/src/main/resources/static/excel/payedGatherDetail.xlsx
+++ b/src/main/resources/static/excel/payedGatherDetail.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ideaProjects\invoice\src\main\resources\static\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11880"/>
+    <workbookView windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>任务单号</t>
   </si>
@@ -111,6 +106,12 @@
     <t>t.invoiceProject</t>
   </si>
   <si>
+    <t>fn:(t.contractAmount;0.00)</t>
+  </si>
+  <si>
+    <t>fn:(t.invoiceAmount;0.00)</t>
+  </si>
+  <si>
     <t>t.contractUser</t>
   </si>
   <si>
@@ -126,26 +127,26 @@
     <t>fd:(t.receivedDate;yyyy.MM.dd)</t>
   </si>
   <si>
+    <t>fn:(t.receivedAmount;0.00)</t>
+  </si>
+  <si>
+    <t>fn:(t.noReceivedAmount;0.00)</t>
+  </si>
+  <si>
     <t>t.descprition}}</t>
-  </si>
-  <si>
-    <t>fn:(t.contractAmount;0.00)</t>
-  </si>
-  <si>
-    <t>fn:(t.invoiceAmount;0.00)</t>
-  </si>
-  <si>
-    <t>fn:(t.receivedAmount;0.00)</t>
-  </si>
-  <si>
-    <t>fn:(t.noReceivedAmount;0.00)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,21 +155,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,9 +516,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -208,17 +775,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -476,24 +1087,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="B1" sqref="B1:U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="36.25" customWidth="1"/>
+    <col min="2" max="21" width="12.9464285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +1170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -587,47 +1199,47 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:3">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:3">
       <c r="C4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>